--- a/biology/Zoologie/Goniastrea_edwardsi/Goniastrea_edwardsi.xlsx
+++ b/biology/Zoologie/Goniastrea_edwardsi/Goniastrea_edwardsi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Goniastrea Edwardsi est une espèce de coraux appartenant à la famille des coraux durs[2] scléractiniaires Merulinidae[3] ou auparavant de la famille de Faviidae[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goniastrea Edwardsi est une espèce de coraux appartenant à la famille des coraux durs scléractiniaires Merulinidae ou auparavant de la famille de Faviidae.
 Une seule espèce est décrite par Milne Edwards &amp; Haime en 1848 dans leur guide pour le genre Goniastrea.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les coraux de Goniastrea forment des colonies massives, sphériques, cylindriques, ramifiées ou bien encroûtantes. Ces couleurs peuvent varier du brun, au rose, au gris, au vert, au beige, même à l'orange. Il a parfois avec des colorations contrastées entre ses disques oraux et son manteau.
 En général, ces coraux vivent dans des récifs situés dans les mers tropicales et dans des zones proches de la côte. Principalement, il est possible de le trouver dans les fonds plats, des lagunes, les pentes avant du récif ou bien les fonds mous entre les récifs. 
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
